--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tlaxomulco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E45745-9AE3-423D-AF14-9D8A49489BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86706B-0BBE-439B-B912-D9C5390532EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>ALUMNOS</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Dante</t>
-  </si>
-  <si>
     <t>Viveros</t>
   </si>
   <si>
@@ -100,15 +97,6 @@
     <t>Nuevo ingreso</t>
   </si>
   <si>
-    <t>Ian</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
-    <t>Mascuilino</t>
-  </si>
-  <si>
     <t>Melchor Ocampo</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
   </si>
   <si>
     <t>Reinscripción</t>
-  </si>
-  <si>
-    <t>Sofia</t>
   </si>
   <si>
     <t>Medina</t>
@@ -148,22 +133,10 @@
     <t>Inscripcion abril</t>
   </si>
   <si>
-    <t>Emiliano</t>
-  </si>
-  <si>
     <t>Romero</t>
   </si>
   <si>
     <t>Magallanes</t>
-  </si>
-  <si>
-    <t>Preescolar</t>
-  </si>
-  <si>
-    <t>Primero</t>
-  </si>
-  <si>
-    <t>España</t>
   </si>
   <si>
     <t>Josehp</t>
@@ -176,6 +149,21 @@
   </si>
   <si>
     <t>Inscripcion marzo</t>
+  </si>
+  <si>
+    <t>Alumno1</t>
+  </si>
+  <si>
+    <t>Alumno2</t>
+  </si>
+  <si>
+    <t>Alumno3</t>
+  </si>
+  <si>
+    <t>Alumno4</t>
+  </si>
+  <si>
+    <t>Alumno5</t>
   </si>
 </sst>
 </file>
@@ -476,7 +464,7 @@
   <dimension ref="A2:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -498,7 +486,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,209 +527,209 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>1221</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>2132</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>1231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>1321</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>1312</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -756,157 +744,157 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5710,14 +5698,17 @@
   <mergeCells count="1">
     <mergeCell ref="A2:M2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Ingresa un número entero y mayor que 0" sqref="D4:D1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic y selecciona un valor de la lista de elementos" sqref="F4:F1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Primero,Segundo,Tercero,Cuarto,Quinto,Sexto,semestre 1,semestre 2,semestre 3,semestre 4,semestre 5,semestre 6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E1000" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Dato invalido" error="Por favor, ingrese el formato xxxx-xxxx donde x es un número." promptTitle="Ingrese una fecha" prompt="La fecha debe seguir el formato xxxx-xxxx, donde x es un numero." sqref="G1:G1048576" xr:uid="{90B45380-8651-4704-B6C7-ABE12B044DD5}">
+      <formula1>OR(ISBLANK(G1), AND(ISNUMBER(VALUE(SUBSTITUTE(G1, "-", ""))), LEN(G1)=9, ISERROR(FIND("-", G1))=FALSE))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elemento inválido" error="Por favor, seleccione un elemento de la lista." promptTitle="Seleccione un elemento" prompt="Por favor, seleccione un elemento de la lista." sqref="E1:E1048576" xr:uid="{CBAB0A6E-DAF2-4194-BF25-526BBFE21679}">
       <formula1>"Preescolar,Primaria,Secundaria,Bachillerato"</formula1>
     </dataValidation>
   </dataValidations>
